--- a/Homework2/Residential Property Price Index.xlsx
+++ b/Homework2/Residential Property Price Index.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bahad\GitHub\IE360\Homework2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14612E1F-A367-4479-BB0D-AF0B0EFA9A34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="EVDS" sheetId="1" r:id="rId4"/>
+    <sheet name="EVDS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Tarih</t>
   </si>
@@ -153,73 +158,20 @@
   </si>
   <si>
     <t>2020-08</t>
-  </si>
-  <si>
-    <t>Seri Açıklamaları</t>
-  </si>
-  <si>
-    <t>TP.HKFE01</t>
-  </si>
-  <si>
-    <t>Konut Fiyat Endeksi (KFE)-Düzey</t>
-  </si>
-  <si>
-    <t>Gözlem Değeri: Bitiş</t>
-  </si>
-  <si>
-    <t>Notlar</t>
-  </si>
-  <si>
-    <t>Uygulama Değişiklik Linki</t>
-  </si>
-  <si>
-    <t>http://www.tcmb.gov.tr/wps/wcm/connect/TR/TCMB+TR/Main+Menu/Istatistikler/Reel+Sektor+Istatistikleri/Konut+Fiyat+Endeksi/Uygulama+Degisiklikleri</t>
-  </si>
-  <si>
-    <t>Veri Kaynağı</t>
-  </si>
-  <si>
-    <t>TCMB</t>
-  </si>
-  <si>
-    <t>Veri Yayınlama Takvim Linki</t>
-  </si>
-  <si>
-    <t>http://www3.tcmb.gov.tr/veriyaytakvim/takvim.php</t>
-  </si>
-  <si>
-    <t>Metaveri Linki</t>
-  </si>
-  <si>
-    <t>http://www.tcmb.gov.tr/wps/wcm/connect/TR/TCMB+TR/Main+Menu/Istatistikler/Reel+Sektor+Istatistikleri/Konut+Fiyat+Endeksi/Metaveri</t>
-  </si>
-  <si>
-    <t>Etiketler</t>
-  </si>
-  <si>
-    <t>Konut, Konut, Fiyatları, KFE, HKFE, Hedonik, Konut, Fiyat, Endeksi, Konut, Fiyat, Endeksi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -230,34 +182,39 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -547,19 +504,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:C56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,7 +521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -575,7 +529,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -583,7 +537,7 @@
         <v>96.7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -591,7 +545,7 @@
         <v>97.9</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -599,7 +553,7 @@
         <v>98.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -607,7 +561,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -615,7 +569,7 @@
         <v>100.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -623,7 +577,7 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -631,7 +585,7 @@
         <v>100.8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -639,7 +593,7 @@
         <v>101.4</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -647,7 +601,7 @@
         <v>102.2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -655,7 +609,7 @@
         <v>102.8</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -663,7 +617,7 @@
         <v>103.4</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -671,7 +625,7 @@
         <v>104.1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -679,7 +633,7 @@
         <v>104.8</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -687,7 +641,7 @@
         <v>105.7</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -695,7 +649,7 @@
         <v>107.1</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -703,7 +657,7 @@
         <v>108.6</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -711,7 +665,7 @@
         <v>109.1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -719,7 +673,7 @@
         <v>109.3</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -727,7 +681,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -735,7 +689,7 @@
         <v>107.8</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -743,7 +697,7 @@
         <v>108.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -751,7 +705,7 @@
         <v>109.2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -759,7 +713,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -767,7 +721,7 @@
         <v>107.6</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -775,7 +729,7 @@
         <v>108.6</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -783,7 +737,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -791,7 +745,7 @@
         <v>109.3</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -799,7 +753,7 @@
         <v>110.2</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -807,7 +761,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -815,7 +769,7 @@
         <v>112.4</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -823,7 +777,7 @@
         <v>114.4</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -831,7 +785,7 @@
         <v>115.2</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -839,7 +793,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -847,7 +801,7 @@
         <v>117.1</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -855,7 +809,7 @@
         <v>118.8</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -863,7 +817,7 @@
         <v>120.9</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -871,7 +825,7 @@
         <v>123.7</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -879,7 +833,7 @@
         <v>125.4</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -887,7 +841,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -895,7 +849,7 @@
         <v>135.9</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -903,7 +857,7 @@
         <v>139.5</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -911,7 +865,7 @@
         <v>141.4</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -919,82 +873,8 @@
         <v>144.4</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="B53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="B54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="B55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="B56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" t="s">
-        <v>60</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>